--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,30 +440,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Sno</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Birthday</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dialouge</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
@@ -474,25 +484,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>testuser1</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>45027</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023,2022</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>anshika.2024cs1053@kiet.edu</t>
         </is>
@@ -503,25 +521,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>testuser2</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>45028</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>2022</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>anshika.2024cs1053@kiet.edu</t>
         </is>
@@ -532,25 +556,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>testuser3</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>45029</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2022</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>anshika.2024cs1053@kiet.edu</t>
         </is>
@@ -561,27 +591,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>testuser4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45030</v>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Happy birthday Dear</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>yashika</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Happy birthday Yashika</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2022</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>anshika.2024cs1053@kiet.edu</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>danshika42@gmail.com</t>
         </is>
       </c>
     </row>
@@ -590,27 +626,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>testuser5</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45033</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Happy birthday Dear5</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023,2022</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>2022</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>anshika.2024cs1053@kiet.edu</t>
         </is>
@@ -621,25 +661,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>testuser6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>45093</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>2022</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>anshika.2024cs1053@kiet.edu</t>
         </is>
@@ -650,25 +696,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>testuser7</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>45125</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>2022</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>danshika42@gmail.com</t>
         </is>
@@ -679,25 +731,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>testuser8</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>45034</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" s="2" t="n">
+        <v>45035</v>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>danshika42@gmail.com</t>
         </is>
@@ -708,25 +766,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>testuser98</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>45036</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>2022</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>danshika42@gmail.com</t>
         </is>
@@ -737,25 +801,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>testuser10</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>45037</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Happy birthday Dear</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>2022</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>danshika42@gmail.com</t>
         </is>
